--- a/target/test-classes/testdata/ExelenterEmployeesList.xlsx
+++ b/target/test-classes/testdata/ExelenterEmployeesList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestNGFramework\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CucumberB1\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -141,16 +141,16 @@
     <t>Exelent2022Sdet!</t>
   </si>
   <si>
-    <t>willadams0654321</t>
-  </si>
-  <si>
-    <t>elizabethlee0654321</t>
-  </si>
-  <si>
-    <t>tylernguyen0654321</t>
-  </si>
-  <si>
-    <t>johnSmith0654321</t>
+    <t>johnSmith06543211</t>
+  </si>
+  <si>
+    <t>tylernguyen06543211</t>
+  </si>
+  <si>
+    <t>elizabethlee06543211</t>
+  </si>
+  <si>
+    <t>willadams06543211</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -634,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -662,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>

--- a/target/test-classes/testdata/ExelenterEmployeesList.xlsx
+++ b/target/test-classes/testdata/ExelenterEmployeesList.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Firstname</t>
   </si>
@@ -141,16 +141,28 @@
     <t>Exelent2022Sdet!</t>
   </si>
   <si>
-    <t>johnSmith06543211</t>
-  </si>
-  <si>
-    <t>tylernguyen06543211</t>
-  </si>
-  <si>
-    <t>elizabethlee06543211</t>
-  </si>
-  <si>
-    <t>willadams06543211</t>
+    <t>willadams065432112</t>
+  </si>
+  <si>
+    <t>elizabethlee065432112</t>
+  </si>
+  <si>
+    <t>tylernguyen065432112</t>
+  </si>
+  <si>
+    <t>johnSmith065432112</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>alexJordan</t>
+  </si>
+  <si>
+    <t>jordan@_2023!!!</t>
   </si>
 </sst>
 </file>
@@ -584,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -620,7 +632,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -634,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -648,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -662,16 +674,31 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
